--- a/automation_pdf/extract_form/mixed.xlsx
+++ b/automation_pdf/extract_form/mixed.xlsx
@@ -1,90 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/913ddab43184e2a1/桌面/python-life/automation_pdf/extract_form/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_9C26CBE2DFDC5055665B28363FA4B213F0C744BF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35521A6-4ECD-480E-AA31-13C09A25C98C}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="12196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="11">
-  <si>
-    <t>商品种类</t>
-  </si>
-  <si>
-    <t>散</t>
-  </si>
-  <si>
-    <t>盒</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>52730</t>
-  </si>
-  <si>
-    <t>水果</t>
-  </si>
-  <si>
-    <t>肉品</t>
-  </si>
-  <si>
-    <t>水产</t>
-  </si>
-  <si>
-    <t>31638</t>
-  </si>
-  <si>
-    <t>21092</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,43 +48,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -423,202 +422,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>数据类型</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>占用字节数</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(signed)/unsigned char</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(signed)/unsigned short(int)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>(signed)/unsigned (long) int</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>(long)double</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>变量类型</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>全局/局部变量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>作用域</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>静/动态变量</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>存储区</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>自动变量</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>局部变量</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>块作用域</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>动态变量</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>动态存储区</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>寄存器变量</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>局部变量</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>块作用域</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>动态变量</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CPU 寄存器</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>静态局部变量</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>局部变量</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>块作用域</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>静态变量</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>静态存储区</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>静态全部变量</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>全局变量</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>文件作用域</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>静态变量</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>静态存储区</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>外部变量</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>全局变量</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>文件作用域</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>静态变量</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>静态存储区</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>第 i 行行地址</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>a+i、&amp;a[i]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>第 i 行行首地址（第 i 行第 0 列地址）</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>a[i]、*(a+i)、&amp;a[i][0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>元素 a[i][j] 的地址</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>a[i]+j、*(a+i)+j、&amp;a[i][0]+j、&amp;a[i][j]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>第 i 行第 j 列元素值</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>*(a[i]+j)、*(*(a+i)j)、*(&amp;a[i][0]+j)、a[i][j]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>